--- a/dataTables.xlsx
+++ b/dataTables.xlsx
@@ -4,25 +4,203 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="account" sheetId="1" r:id="rId1"/>
-    <sheet name="bookInfo" sheetId="2" r:id="rId2"/>
-    <sheet name="recordInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="公共属性" sheetId="4" r:id="rId1"/>
+    <sheet name="t_user" sheetId="1" r:id="rId2"/>
+    <sheet name="t_operator" sheetId="5" r:id="rId3"/>
+    <sheet name="bookInfo" sheetId="2" r:id="rId4"/>
+    <sheet name="recordInfo" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_modified_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_modified_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK-&gt;t_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次修改的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码（使用Spring实现的BCrypt，生成60个字符的Hash值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真是姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,20 +545,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +821,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -404,7 +1002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/dataTables.xlsx
+++ b/dataTables.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="公共属性" sheetId="4" r:id="rId1"/>
     <sheet name="t_user" sheetId="1" r:id="rId2"/>
     <sheet name="t_operator" sheetId="5" r:id="rId3"/>
-    <sheet name="bookInfo" sheetId="2" r:id="rId4"/>
-    <sheet name="recordInfo" sheetId="3" r:id="rId5"/>
+    <sheet name="t_bookInfo" sheetId="2" r:id="rId4"/>
+    <sheet name="r_user_operate_info" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,150 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_name</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>图书名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_ISBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书分类号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_house</t>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>book_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_stock_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书库存量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_cover_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书封面图片url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adder_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加图书者的Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK-&gt;t_operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_modified_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次修改时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,9 +391,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +695,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -630,7 +777,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -825,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -990,12 +1137,213 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1004,14 +1352,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/dataTables.xlsx
+++ b/dataTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="公共属性" sheetId="4" r:id="rId1"/>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -777,7 +777,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -785,7 +785,8 @@
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -973,7 +974,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1139,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/dataTables.xlsx
+++ b/dataTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="公共属性" sheetId="4" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="t_operator" sheetId="5" r:id="rId3"/>
     <sheet name="t_bookInfo" sheetId="2" r:id="rId4"/>
     <sheet name="r_user_operate_info" sheetId="3" r:id="rId5"/>
+    <sheet name="t_user_borrow_info" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +346,130 @@
   </si>
   <si>
     <t>最后一次修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK-&gt;t_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK-&gt;t_bookInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operate_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型(1-借书，2-还书)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operate_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借书日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚款金额(超出天数*0.2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -777,7 +902,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -785,8 +910,7 @@
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -974,7 +1098,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1141,7 +1265,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1353,31 +1477,236 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:C3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>